--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sdc2-Ptprj.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="H2">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="I2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="J2">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.18754548764854</v>
+        <v>9.827738000000002</v>
       </c>
       <c r="N2">
-        <v>4.18754548764854</v>
+        <v>29.483214</v>
       </c>
       <c r="O2">
-        <v>0.2137298922005703</v>
+        <v>0.3869625527756497</v>
       </c>
       <c r="P2">
-        <v>0.2137298922005703</v>
+        <v>0.3869625527756497</v>
       </c>
       <c r="Q2">
-        <v>1.08294814423076</v>
+        <v>6.944217428459334</v>
       </c>
       <c r="R2">
-        <v>1.08294814423076</v>
+        <v>62.497956856134</v>
       </c>
       <c r="S2">
-        <v>0.0004085135241243858</v>
+        <v>0.002007501210129137</v>
       </c>
       <c r="T2">
-        <v>0.0004085135241243858</v>
+        <v>0.002007501210129137</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="H3">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="I3">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="J3">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.2258993976062</v>
+        <v>9.362736333333332</v>
       </c>
       <c r="N3">
-        <v>9.2258993976062</v>
+        <v>28.088209</v>
       </c>
       <c r="O3">
-        <v>0.4708845526621243</v>
+        <v>0.368653331266258</v>
       </c>
       <c r="P3">
-        <v>0.4708845526621243</v>
+        <v>0.368653331266258</v>
       </c>
       <c r="Q3">
-        <v>2.38592527793835</v>
+        <v>6.61565019580322</v>
       </c>
       <c r="R3">
-        <v>2.38592527793835</v>
+        <v>59.54085176222899</v>
       </c>
       <c r="S3">
-        <v>0.0009000271608391612</v>
+        <v>0.001912515832156565</v>
       </c>
       <c r="T3">
-        <v>0.0009000271608391612</v>
+        <v>0.001912515832156565</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.258611672977641</v>
+        <v>0.7065936666666666</v>
       </c>
       <c r="H4">
-        <v>0.258611672977641</v>
+        <v>2.119781</v>
       </c>
       <c r="I4">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="J4">
-        <v>0.001911354185969573</v>
+        <v>0.005187843618793344</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.17925431340871</v>
+        <v>6.206655</v>
       </c>
       <c r="N4">
-        <v>6.17925431340871</v>
+        <v>18.619965</v>
       </c>
       <c r="O4">
-        <v>0.3153855551373054</v>
+        <v>0.2443841159580923</v>
       </c>
       <c r="P4">
-        <v>0.3153855551373054</v>
+        <v>0.2443841159580923</v>
       </c>
       <c r="Q4">
-        <v>1.598027295744931</v>
+        <v>4.385583114185</v>
       </c>
       <c r="R4">
-        <v>1.598027295744931</v>
+        <v>39.47024802766499</v>
       </c>
       <c r="S4">
-        <v>0.0006028135010060263</v>
+        <v>0.001267826576507641</v>
       </c>
       <c r="T4">
-        <v>0.0006028135010060263</v>
+        <v>0.001267826576507641</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="H5">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="I5">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="J5">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.18754548764854</v>
+        <v>9.827738000000002</v>
       </c>
       <c r="N5">
-        <v>4.18754548764854</v>
+        <v>29.483214</v>
       </c>
       <c r="O5">
-        <v>0.2137298922005703</v>
+        <v>0.3869625527756497</v>
       </c>
       <c r="P5">
-        <v>0.2137298922005703</v>
+        <v>0.3869625527756497</v>
       </c>
       <c r="Q5">
-        <v>468.4467560727199</v>
+        <v>1100.038435334254</v>
       </c>
       <c r="R5">
-        <v>468.4467560727199</v>
+        <v>9900.345918008281</v>
       </c>
       <c r="S5">
-        <v>0.1767091399596376</v>
+        <v>0.3180096984106131</v>
       </c>
       <c r="T5">
-        <v>0.1767091399596376</v>
+        <v>0.3180096984106131</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="H6">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="I6">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="J6">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.2258993976062</v>
+        <v>9.362736333333332</v>
       </c>
       <c r="N6">
-        <v>9.2258993976062</v>
+        <v>28.088209</v>
       </c>
       <c r="O6">
-        <v>0.4708845526621243</v>
+        <v>0.368653331266258</v>
       </c>
       <c r="P6">
-        <v>0.4708845526621243</v>
+        <v>0.368653331266258</v>
       </c>
       <c r="Q6">
-        <v>1032.070614494688</v>
+        <v>1047.989865680909</v>
       </c>
       <c r="R6">
-        <v>1032.070614494688</v>
+        <v>9431.90879112818</v>
       </c>
       <c r="S6">
-        <v>0.3893213226492267</v>
+        <v>0.3029629969441007</v>
       </c>
       <c r="T6">
-        <v>0.3893213226492267</v>
+        <v>0.3029629969441007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>111.866666870709</v>
+        <v>111.9320066666667</v>
       </c>
       <c r="H7">
-        <v>111.866666870709</v>
+        <v>335.79602</v>
       </c>
       <c r="I7">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="J7">
-        <v>0.8267872038872721</v>
+        <v>0.8218100075305903</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.17925431340871</v>
+        <v>6.206655</v>
       </c>
       <c r="N7">
-        <v>6.17925431340871</v>
+        <v>18.619965</v>
       </c>
       <c r="O7">
-        <v>0.3153855551373054</v>
+        <v>0.2443841159580923</v>
       </c>
       <c r="P7">
-        <v>0.3153855551373054</v>
+        <v>0.2443841159580923</v>
       </c>
       <c r="Q7">
-        <v>691.2525837874838</v>
+        <v>694.7233488377001</v>
       </c>
       <c r="R7">
-        <v>691.2525837874838</v>
+        <v>6252.5101395393</v>
       </c>
       <c r="S7">
-        <v>0.2607567412784078</v>
+        <v>0.2008373121758764</v>
       </c>
       <c r="T7">
-        <v>0.2607567412784078</v>
+        <v>0.2008373121758764</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="H8">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="I8">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="J8">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.18754548764854</v>
+        <v>9.827738000000002</v>
       </c>
       <c r="N8">
-        <v>4.18754548764854</v>
+        <v>29.483214</v>
       </c>
       <c r="O8">
-        <v>0.2137298922005703</v>
+        <v>0.3869625527756497</v>
       </c>
       <c r="P8">
-        <v>0.2137298922005703</v>
+        <v>0.3869625527756497</v>
       </c>
       <c r="Q8">
-        <v>97.05714409207329</v>
+        <v>231.57300518029</v>
       </c>
       <c r="R8">
-        <v>97.05714409207329</v>
+        <v>2084.15704662261</v>
       </c>
       <c r="S8">
-        <v>0.03661223871680831</v>
+        <v>0.06694535315490741</v>
       </c>
       <c r="T8">
-        <v>0.03661223871680831</v>
+        <v>0.06694535315490742</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="H9">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="I9">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="J9">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.2258993976062</v>
+        <v>9.362736333333332</v>
       </c>
       <c r="N9">
-        <v>9.2258993976062</v>
+        <v>28.088209</v>
       </c>
       <c r="O9">
-        <v>0.4708845526621243</v>
+        <v>0.368653331266258</v>
       </c>
       <c r="P9">
-        <v>0.4708845526621243</v>
+        <v>0.368653331266258</v>
       </c>
       <c r="Q9">
-        <v>213.833963082574</v>
+        <v>220.6160755832817</v>
       </c>
       <c r="R9">
-        <v>213.833963082574</v>
+        <v>1985.544680249535</v>
       </c>
       <c r="S9">
-        <v>0.08066320285205845</v>
+        <v>0.06377781849000072</v>
       </c>
       <c r="T9">
-        <v>0.08066320285205845</v>
+        <v>0.06377781849000075</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.177573683283</v>
+        <v>23.563205</v>
       </c>
       <c r="H10">
-        <v>23.177573683283</v>
+        <v>70.689615</v>
       </c>
       <c r="I10">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="J10">
-        <v>0.1713014419267583</v>
+        <v>0.1730021488506163</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.17925431340871</v>
+        <v>6.206655</v>
       </c>
       <c r="N10">
-        <v>6.17925431340871</v>
+        <v>18.619965</v>
       </c>
       <c r="O10">
-        <v>0.3153855551373054</v>
+        <v>0.2443841159580923</v>
       </c>
       <c r="P10">
-        <v>0.3153855551373054</v>
+        <v>0.2443841159580923</v>
       </c>
       <c r="Q10">
-        <v>143.2201221567747</v>
+        <v>146.248684129275</v>
       </c>
       <c r="R10">
-        <v>143.2201221567747</v>
+        <v>1316.238157163475</v>
       </c>
       <c r="S10">
-        <v>0.05402600035789155</v>
+        <v>0.04227897720570815</v>
       </c>
       <c r="T10">
-        <v>0.05402600035789155</v>
+        <v>0.04227897720570815</v>
       </c>
     </row>
   </sheetData>
